--- a/文档/业务消息队列(阿里云)性能测试报告.xlsx
+++ b/文档/业务消息队列(阿里云)性能测试报告.xlsx
@@ -244,6 +244,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>2250千字节左右</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -262,15 +266,11 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-1.阿里云普通盘可能是多块普通磁盘组成的磁盘阵列，甚至也许还有磁盘的缓存电池。目前10w的量手工测试情况下，未能测试出很细的问题。
+1.阿里云普通盘可能是多块普通磁盘组成的磁盘阵列，甚至也许还有磁盘的缓存。目前10w的量手工测试情况下，未能测试出很细的问题。
 2.阿里云ssd刚出来未多久，很多细节和对阿里云虚拟机对ssd的支持程度都有待观察。目前在顺序写和sqlserver上面，性能反而下降。可能ssd只是ssd盘，内部未有ssd磁盘阵列等支持。
 3.测试结果是手工观察测试，仅做参考分析。个人觉得一个队列至少有2个数据节点做均衡和故障容灾，每个数据节点有三四个分区，性能为佳。
 4.测试结果的测试数据很少，故不考虑磁盘写入内容导致的瓶颈，仅关注并发。另外的最后的一个测试表明磁盘写入内容的大小对测试的影响还是比较大的。</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2250千字节左右</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -717,7 +717,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="A11" sqref="A11:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -823,7 +823,7 @@
         <v>20</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>21</v>
@@ -893,7 +893,7 @@
         <v>28</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>29</v>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
